--- a/P4/Docs/E3.xlsx
+++ b/P4/Docs/E3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tugfa123\Practicas\Practicas_ARQO\P4\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA9578F-B3B6-41F7-8BAC-4A8D4C483FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E0CE8-1853-4601-80CE-83D082A2B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="5355" windowWidth="14610" windowHeight="16305" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -56,10 +56,10 @@
     <t>Aceleración</t>
   </si>
   <si>
-    <t>1000x1000</t>
-  </si>
-  <si>
     <t>Tiempos de ejecución (s)</t>
+  </si>
+  <si>
+    <t>N = 1800</t>
   </si>
 </sst>
 </file>
@@ -67,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -128,12 +128,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -141,6 +138,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,205 +479,211 @@
   <dimension ref="D7:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="J7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
-        <v>4.3605609999999997</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="E9" s="2">
+        <v>45.098090999999997</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45.098090999999997</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45.098090999999997</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45.098090999999997</v>
+      </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
-        <v>5.239223</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14.310731000000001</v>
-      </c>
-      <c r="G10" s="3">
-        <v>15.055284</v>
-      </c>
-      <c r="H10" s="3">
-        <v>15.368297</v>
+      <c r="E10" s="2">
+        <v>47.703853000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>80.219340000000003</v>
+      </c>
+      <c r="G10" s="2">
+        <v>77.515044000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>84.054901999999998</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
-        <v>5.4629580000000004</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2.5196019999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1.708229</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1.2872669999999999</v>
+      <c r="E11" s="2">
+        <v>48.639896</v>
+      </c>
+      <c r="F11" s="2">
+        <v>24.923234000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17.541910000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>14.180161</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>4.8597320000000002</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2.7220390000000001</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.6785589999999999</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1.3332889999999999</v>
+      <c r="E12" s="2">
+        <v>45.712198999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>21.847602999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14.316261000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10.480383</v>
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <f>$E$9/E9</f>
         <v>1</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <f>$E$9/E10</f>
-        <v>0.83229154399421434</v>
-      </c>
-      <c r="F19" s="2">
+        <v>0.94537627809644631</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" ref="F19:H19" si="0">$E$9/F10</f>
-        <v>0.30470567855688152</v>
-      </c>
-      <c r="G19" s="2">
+        <v>0.56218476741394274</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.28963658207975351</v>
-      </c>
-      <c r="H19" s="2">
+        <v>0.58179791525371505</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>0.28373742386680839</v>
+        <v>0.53653136137140456</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <f t="shared" ref="E20:H21" si="1">$E$9/E11</f>
-        <v>0.7982051115897284</v>
-      </c>
-      <c r="F20" s="2">
+        <v>0.92718312966787586</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="1"/>
-        <v>1.7306546827633889</v>
-      </c>
-      <c r="G20" s="2">
+        <v>1.8094799013643252</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>2.5526794124206997</v>
-      </c>
-      <c r="H20" s="2">
+        <v>2.5708768885486242</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>3.3874565261130751</v>
+        <v>3.1803652299857523</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>0.89728425353496855</v>
-      </c>
-      <c r="F21" s="2">
+        <v>0.98656577426957737</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
-        <v>1.6019465555048988</v>
-      </c>
-      <c r="G21" s="2">
+        <v>2.0642123074096501</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="1"/>
-        <v>2.5978002560529596</v>
-      </c>
-      <c r="H21" s="2">
+        <v>3.1501305403694437</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>3.2705294951057122</v>
+        <v>4.3030956979339399</v>
       </c>
     </row>
   </sheetData>

--- a/P4/Docs/E3.xlsx
+++ b/P4/Docs/E3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tugfa123\Practicas\Practicas_ARQO\P4\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E0CE8-1853-4601-80CE-83D082A2B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BEDE3-8CBE-4D86-9BFA-A088608F64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Version\nhilos</t>
   </si>
@@ -60,6 +61,36 @@
   </si>
   <si>
     <t>N = 1800</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>pi_par1</t>
+  </si>
+  <si>
+    <t>Tiempo\Version</t>
+  </si>
+  <si>
+    <t>pi_par7</t>
+  </si>
+  <si>
+    <t>pi_par6</t>
+  </si>
+  <si>
+    <t>pi_par5</t>
+  </si>
+  <si>
+    <t>pi_par4</t>
+  </si>
+  <si>
+    <t>pi_par3</t>
+  </si>
+  <si>
+    <t>pi_par2</t>
+  </si>
+  <si>
+    <t>Tiempos (s)</t>
   </si>
 </sst>
 </file>
@@ -78,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,6 +178,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC673AEA-F19D-4108-8B14-BC88E6B32454}">
   <dimension ref="D7:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,4 +737,134 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4762B29-303B-4F35-A1E4-475EF0250C5B}">
+  <dimension ref="D8:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.27715099999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.25415300000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.25140600000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.0708000000000001E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2.8056000000000001E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.3619999999999997E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.233791</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2.7823000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <f>$E$10 / E10</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:L11" si="0">$E$10 / F10</f>
+        <v>1.0904888000535109</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.102404079457133</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>6.8082686449837864</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.8784930139720544</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2436347412254616</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1854647954797233</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9612191352478163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P4/Docs/E3.xlsx
+++ b/P4/Docs/E3.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tugfa123\Practicas\Practicas_ARQO\P4\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BEDE3-8CBE-4D86-9BFA-A088608F64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139DF67-1B80-451F-97E3-9D54C7AF9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
+    <workbookView xWindow="38400" yWindow="6210" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio 5" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Version\nhilos</t>
   </si>
@@ -91,6 +92,33 @@
   </si>
   <si>
     <t>Tiempos (s)</t>
+  </si>
+  <si>
+    <t>Tiempo paralelo</t>
+  </si>
+  <si>
+    <t>Tiempo serie</t>
+  </si>
+  <si>
+    <t>FPS Serie</t>
+  </si>
+  <si>
+    <t>FPS Paralelo</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>FHD</t>
+  </si>
+  <si>
+    <t>4K</t>
+  </si>
+  <si>
+    <t>8K</t>
   </si>
 </sst>
 </file>
@@ -109,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,13 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,13 +566,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="J7" t="s">
         <v>7</v>
       </c>
@@ -629,13 +663,13 @@
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
@@ -743,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4762B29-303B-4F35-A1E4-475EF0250C5B}">
   <dimension ref="D8:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,44 +788,44 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -811,16 +845,16 @@
       <c r="H10" s="2">
         <v>4.0708000000000001E-2</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="2">
         <v>2.8056000000000001E-2</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="2">
         <v>3.3619999999999997E-2</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="2">
         <v>0.233791</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="2">
         <v>2.7823000000000001E-2</v>
       </c>
     </row>
@@ -867,4 +901,159 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C715C7-3437-4B89-AA39-94D8E3733D80}">
+  <dimension ref="D5:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.8695818099999999E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.10973563629999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.2462581818</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.187596909</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4.9086170909</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.06711818E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3896363600000001E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3.5755454499999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.123505909</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.47978599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <f>E6/E7</f>
+        <v>2.6890946699080693</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:I8" si="0">F6/F7</f>
+        <v>4.5921479157607052</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8872899322255856</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6157092289406183</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>10.23084685859946</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <f>1/E6</f>
+        <v>34.848283346206465</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:I9" si="1">1/F6</f>
+        <v>9.1128099650887986</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0607787838381579</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.842036546593942</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20372336678163033</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1">
+        <f>1/E7</f>
+        <v>93.71033300172995</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10:I10" si="2">1/F7</f>
+        <v>41.847371287905908</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>27.967760834923801</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>8.0967785921886541</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0842625670611481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P4/Docs/E3.xlsx
+++ b/P4/Docs/E3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tugfa123\Practicas\Practicas_ARQO\P4\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2139DF67-1B80-451F-97E3-9D54C7AF9DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8186C85-35D3-41A6-BF72-0AAD4082BCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="6210" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{6E0C4A6B-219A-4CC3-9C09-32EDF042FF6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -213,11 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC673AEA-F19D-4108-8B14-BC88E6B32454}">
   <dimension ref="D7:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +566,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="J7" t="s">
         <v>7</v>
       </c>
@@ -663,13 +663,13 @@
       </c>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
@@ -788,17 +788,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
@@ -907,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C715C7-3437-4B89-AA39-94D8E3733D80}">
   <dimension ref="D5:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -939,7 +939,7 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1">
@@ -959,7 +959,7 @@
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1">
@@ -979,7 +979,7 @@
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1">
@@ -1004,7 +1004,7 @@
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="1">
@@ -1029,7 +1029,7 @@
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1">
